--- a/image/provenance.xlsx
+++ b/image/provenance.xlsx
@@ -965,46 +965,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="76.1796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="76.90234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="212.28515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.94921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="34.41796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="214.578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/provenance.xlsx
+++ b/image/provenance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="261">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -578,10 +578,6 @@
   </si>
   <si>
     <t>Provenance.agent.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -965,46 +961,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="76.90234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="76.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="214.578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.8046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="212.28515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.94921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3088,13 +3084,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3145,7 +3141,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3163,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3177,7 +3173,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3206,7 +3202,7 @@
         <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>101</v>
@@ -3259,7 +3255,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3277,7 +3273,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3291,11 +3287,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3317,10 +3313,10 @@
         <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>101</v>
@@ -3375,7 +3371,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3407,7 +3403,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3433,16 +3429,16 @@
         <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3470,11 +3466,11 @@
         <v>154</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3491,7 +3487,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3506,24 +3502,24 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3549,16 +3545,16 @@
         <v>151</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3583,14 +3579,14 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3625,21 +3621,21 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3662,16 +3658,16 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3721,7 +3717,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>53</v>
@@ -3736,16 +3732,16 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -3753,7 +3749,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3776,16 +3772,16 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3835,7 +3831,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3853,7 +3849,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -3867,7 +3863,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3893,10 +3889,10 @@
         <v>170</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3947,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3965,21 +3961,21 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4002,13 +3998,13 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4059,7 +4055,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4077,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4120,7 +4116,7 @@
         <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>101</v>
@@ -4173,7 +4169,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4191,7 +4187,7 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4205,11 +4201,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4231,10 +4227,10 @@
         <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>101</v>
@@ -4289,7 +4285,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4347,10 +4343,10 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4377,14 +4373,14 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4419,21 +4415,21 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4459,13 +4455,13 @@
         <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4515,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4533,10 +4529,10 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -4547,7 +4543,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4573,13 +4569,13 @@
         <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4629,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4647,7 +4643,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4661,7 +4657,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4684,13 +4680,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4741,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4759,7 +4755,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
